--- a/tests/data/desired/ptpreport.xlsx
+++ b/tests/data/desired/ptpreport.xlsx
@@ -71,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -84,10 +84,33 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="8"/>
-      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,26 +118,13 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill>
         <fgColor indexed="55"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="64"/>
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -130,9 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -269,16 +283,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
     </row>
@@ -386,16 +400,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
     </row>
@@ -503,16 +517,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="4">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
     </row>
@@ -620,16 +634,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="5">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s" s="5">
         <v>3</v>
       </c>
     </row>
